--- a/js_output/script_logs(500-599).xlsx
+++ b/js_output/script_logs(500-599).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,7 +2997,1942 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[5]) )-&gt; [event] https://disqus.com</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[3]) )-&gt; [event] https://disqus.com</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[6]) )-&gt; [event] https://disqus.com</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( iframe Iframe(,) )-&gt; [iframe] [NO URL?]</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul/li/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[6]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul/li[6]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(click, /button) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(error, //*[@id="ac877137590b2752c109eeaaae953b1f"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(change, //*[@id="osano-cm-dialog-toggle--category_MARKETING"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(focus, /span) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/div[2]/section[4]/div[3]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul[3]/li[3]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(error, //*[@id="f1d25cfa91025cfa6461474ac8f95917"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, //*[@id="get-started-home-bottom"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div[2]/div/div/div[2]/span) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div[2]/div/div/div[2]/div/div/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(change, //*[@id="osano-cm-dialog-toggle--category_ANALYTICS"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(click, /div/div) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(load, //*[@id="f1d25cfa91025cfa6461474ac8f95917"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/div[2]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[5]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[2]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(load, /html/body/link) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[3]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/div[2]/section/h2/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/span) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(keyup, //*[@id="8e84c1f1-8ef7-4cbd-a180-983af8fa808a"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul/li[8]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(scroll, /html/body/div/div[3]/div) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(change, //*[@id="osano-cm-dialog-toggle--category_PERSONALIZATION"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(scroll, /div/div) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div/div/button) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul/li[2]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(load, /html/body/link) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[4]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(load, //*[@id="ac877137590b2752c109eeaaae953b1f"]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul[3]/li[2]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[6]) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div/div) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( event Event(onclick, /html/body/div[2]/div/footer/div/nav/ul/li[5]/a) )-&gt; [event] https://disqus.com/#</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/# -( iframe Iframe(,) )-&gt; [iframe] [NO URL?]</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro/#</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro/#afdcc538-1508-4077-8aff-82460ef2334c</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[6]/a) )-&gt; [event] https://disqus.com/landing/disqus-pro</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[5]) )-&gt; [event] https://disqus.com/landing/disqus-pro</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[3]) )-&gt; [event] https://disqus.com/landing/disqus-pro</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[4]) )-&gt; [event] https://disqus.com/landing/disqus-pro</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[6]) )-&gt; [event] https://disqus.com/landing/disqus-pro</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-pro -( iframe Iframe(,) )-&gt; [iframe] [NO URL?]</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( get None )-&gt; [get] https://disqus.com/landing/disqus-business/#1bfc22d5-3bf4-4b10-a9ba-2d51d9508948</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( get None )-&gt; [get] https://disqus.com/landing/disqus-business/#</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[6]/a) )-&gt; [event] https://disqus.com/landing/disqus-business</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[5]) )-&gt; [event] https://disqus.com/landing/disqus-business</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[3]) )-&gt; [event] https://disqus.com/landing/disqus-business</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[4]) )-&gt; [event] https://disqus.com/landing/disqus-business</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[4]/div[2]/a[6]) )-&gt; [event] https://disqus.com/landing/disqus-business</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/landing/disqus-business -( iframe Iframe(,) )-&gt; [iframe] [NO URL?]</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/ -( get None )-&gt; [get] https://disqus.com/#c7576eeb-aa9d-4a67-9215-79ee6e374a06</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://disqus.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://disqus.com -( get None )-&gt; [get] https://disqus.com/ -( event Event(onclick, /html/body/div[2]/div/nav/div/div/div[3]/div[6]/a) )-&gt; [event] https://disqus.com/</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://aol.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://aol.com</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>5b2ed0116e81cfa18dd5a25eb96297980919d5c9436a364d19828eed4bd3c17c</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://aol.com</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://aol.com</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/pagead/managed/js/gpt/m202502110101/pubads_impl.js</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>19cd07f3237ac47c47ca7dcb6ae0f0708825f92a715d2a8b3efbe89c44e70756</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://aol.com</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://aol.com</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://ep2.adtrafficquality.google/sodar/sodar2.js</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>828c4d6c2b48df1a9ba18b053b3201c10b69b22051699c919b5229993512fc6a</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/js_output/script_logs(500-599).xlsx
+++ b/js_output/script_logs(500-599).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4932,7 +4932,4402 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/next-integrations/integrations/vendor/commons.a61d7bea37d2de5d4b69.js.gz</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2ce7c90dd8068852eaccf2e15eee95eb1cde196ab57b5e54249065f21c3743c3</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.redditstatic.com/ads/pixel.js</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>787d52ad6557ac611ed690af84c7463bff9e04a20249a449e4173fc5f1788216</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://static.ads-twitter.com/uwt.js</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>7b7d86014aee032bb034bf3d9f1b4d13f72e089ac0f065ce6ce06111ca6c3aac</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/analytics-next/bundles/ajs-destination.bundle.ed53a26b6edc80c65d73.js</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>d25f4bdde9d2a137930aaefdc25297a5386a4a93a80ba137b7184c7c700796e5</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/analytics-next/bundles/schemaFilter.bundle.5c2661f67b4b71a6d9bd.js</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>85612c6d0c69806ee7df0d6d35352b62d9dd3b642e11536fd4e82eefc893d5ad</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://hotjar.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://hotjar.com -( iframe Iframe(,) )-&gt; [iframe] [NO URL?]</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://launchpad.privacymanager.io/latest/launchpad.bundle.js</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82218b99ea5308018e0229c002ef724149d555cd21b5222b6c9191c264507197</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://client.aps.amazon-adsystem.com/publisher.js</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>b34608bb919a46b42b8c1727db67d7fccd7a0badc501f7b00fad758cfca86544</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>5b2ed0116e81cfa18dd5a25eb96297980919d5c9436a364d19828eed4bd3c17c</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/pagead/managed/js/gpt/m202502110101/pubads_impl.js</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>19cd07f3237ac47c47ca7dcb6ae0f0708825f92a715d2a8b3efbe89c44e70756</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://secure.cdn.fastclick.net/js/pubcid/latest/pubcid.min.js</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0626b13fc92dfbbb93b3eda338b4d96e587bc3173a433f8280303af549f0d10d</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>EasyList, EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://cdn.id5-sync.com/api/1.0/id5-api.js</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>47916727a297994c69d492fc390044f0d231558d1051d542aeb9a997f693c355</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>EasyList, EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://accounts.google.com/gsi/client</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2ca11d6133b5a313fb740fbdb8c4f6a2a99482dd30044c82635e53f43e16df63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://ep2.adtrafficquality.google/sodar/sodar2.js</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>828c4d6c2b48df1a9ba18b053b3201c10b69b22051699c919b5229993512fc6a</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/236-bundle.js</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>7ad1da2918c3e009667b75e81044905877fa7f7c961b7a0ae2fd735792e1034b</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/492-bundle.js</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>b9abae429566dbd025dbc9895b471ab2aaf3cc130c858a3be19b040bf4870b3e</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/538-bundle.js</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3540ee3d0d2c8c8e0f5a87d43eb794ada6eb37ab72652f5002e83ed8110e6aff</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/initial-bundle.js</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>68f84c8d0b66a30d494cff7c9a8c8dfaba02a6ef44a3fdd08fc3dba609e47b9c</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/967-bundle.js</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>edcfe7678812fc0bacdaf74e1d7e09f2783c9d60edc52acc06704b80099edc06</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/shell-bundle.js</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>d93aa3fe3cb2c9356b663884315b84645a0bd772905272d2640d94caa81fa13a</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/182-bundle.js</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1f033c54de06689f318dbf7fe480b33d3a41573a58d77713dc15b00cd00a1cd0</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/111-bundle.js</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>e4ad435ddee002101f4bb8d26063f51ed33c16f8603956ec4cf87fc0185f9297</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/207-bundle.js</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>37c0cc7e9d939913439907eed4a23d5144a1f96436c76b85f33ed4f3f6afe402</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/108-bundle.js</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>ada310afb1a0550403c9373d71707659fefe624f750707c6c07270c160c74a66</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/launcher/with-all-vendors-bundle.js</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>9c292e5936d5da228ca47df344848ddf7fe6e323f914889b9e3e450a90585334</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/notifications/src_next_index_tsx-bundle.js</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>06d0635234b9facc206ca2f174a31d1c63dbb8110f0884edad5bdd765fd79a58</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/notifications/vendors-node_modules_reduxjs_toolkit_dist_redux-toolkit_esm_js-node_modules_spotim_images_dis-86e181-bundle.js</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>7d950919e4f7d436189692a69274188c2bb4cf74c92635dd64a5cfd4baad67ce</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/notifications/src_components_NotificationItem_NotificationDescription_NotificationDescription_tsx-src_compo-279477-bundle.js</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>29c26cfba5a256682a80cd564d7a9db6b5751834a5445bc060ce91b7fd14574a</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/notifications/src_components_StickyNotification_ActionContent_ActionContent_tsx-src_components_StickyNotifi-b290dd-bundle.js</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>654ee5bb9632aba55f139a792f848e496be276ab88d9b79463a281c26804a481</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/17/lifestyle/dear-abby-my-husband-is-addicted-to-social-media-and-its-driving-me-crazy/</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://static-cdn.spot.im/production/social/tags/v5.1.7/notifications/src_next_features_BootStickyNotifications_index_tsx-bundle.js</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>42a3e25e85343ef8e43258289d893dee81f541a841e459cb7a938054a01c1885</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/16/real-estate/wealthy-new-yorkers-flock-to-palm-beach-causing-house-prices-to-skyrocket/</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://s0.2mdn.net/instream/video/client.js</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>43ab4ea017b41b9fdda8b87411a09b20828b34dfaa29078af42a8910c4e22020</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/2025/02/16/real-estate/wealthy-new-yorkers-flock-to-palm-beach-causing-house-prices-to-skyrocket/</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://imasdk.googleapis.com/js/sdkloader/ima3.js</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2a43e1d4dc3f4599441d012768dad05bc07aad55c97876e84bd0476ce2bc3101</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>EasyList</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/author/mike-vaccaro/</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.gstatic.com/recaptcha/releases/IyZ984yGrXrBd6ihLOYGwy9X/recaptcha__en.js</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>cdb03756f58767fa816f9dd6287ef6a54aed253efb9ddfa140598b2c22bb1cb1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://nypost.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nypost.com -( get None )-&gt; [get] https://nypost.com/author/mike-vaccaro/</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://js-agent.newrelic.com/nr-rum-1.281.0.min.js</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>a09584f1636ce07e289725023425181f9472bf600bd175a330db790c05c30380</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="offline-content-list-visibility-card"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="cancel-save-page-button"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="error-information-button"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="details-button"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="download-link"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, /html/body/div/div/div[2]/div/div/div/div/div/ul/li[2]/a) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="download-button"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, //*[@id="reload-button"]) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, /html/body/div/div/div[2]/div[3]/a) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, /html/body/div/div/div[2]/div[5]/div[3]/a) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://attn.tv</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://attn.tv -( event Event(onclick, /html/body/div/div/div[2]/div/div/div/div/p/a) )-&gt; [event] https://attn.tv</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://snap.licdn.com/li.lms-analytics/insight.min.js</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>320d4256fc0e4146a6dcaef0569b0f40caf93a0b95a2ddc9c4188ae0cfd61090</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://unpkg.com/web-vitals/dist/web-vitals.iife.js</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>a305eaeb1b54b87d41810401df5e5bd91c931cde3da0ba0eb3af1ea7ed24502c</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://cdn.amplitude.com/libs/amplitude-5.2.2-min.gz.js</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>46ef9f197fcd77d7d6c43d5ebf935a649f06192533c58427639dc4e4a4d01459</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/next-integrations/integrations/vendor/commons.a61d7bea37d2de5d4b69.js.gz</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2ce7c90dd8068852eaccf2e15eee95eb1cde196ab57b5e54249065f21c3743c3</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.gstatic.com/recaptcha/releases/IyZ984yGrXrBd6ihLOYGwy9X/recaptcha__en.js</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>cdb03756f58767fa816f9dd6287ef6a54aed253efb9ddfa140598b2c22bb1cb1</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://accounts.google.com/gsi/client</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2ca11d6133b5a313fb740fbdb8c4f6a2a99482dd30044c82635e53f43e16df63</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://cdn.cookielaw.org/scripttemplates/otSDKStub.js</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>fbdc5f2b9eb3d68f0b8c29feafa699be26e7590e2c96bbe9234e2988e3514395</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( ui_form Ui_form([{'xpath': '//*[@id="g-recaptcha-response-100000"]', 'value': 'jAEkPotUI'}], /html/body/div/div/div/div/div/header/div/button) )-&gt; [ui_form] https://www.trustpilot.com/</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/analytics-next/bundles/ajs-destination.bundle.ed53a26b6edc80c65d73.js</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>d25f4bdde9d2a137930aaefdc25297a5386a4a93a80ba137b7184c7c700796e5</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( ui_form Ui_form([{'xpath': '//*[@id="g-recaptcha-response-100000"]', 'value': 'jAEkPotUI'}], /html/body/div/div/div/div/div/header/div/button) )-&gt; [ui_form] https://www.trustpilot.com/</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://cdn.segment.com/analytics-next/bundles/schemaFilter.bundle.5c2661f67b4b71a6d9bd.js</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>85612c6d0c69806ee7df0d6d35352b62d9dd3b642e11536fd4e82eefc893d5ad</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/section[5]/div/div[2]/div[25]/div/div/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://js-agent.newrelic.com/nr-spa-1.281.0.min.js</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2d6532247aec24366a46f8f5a92018c20332839794b793505d8bbbf5ec7b608f</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[2]/ul/li[8]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/plugins/ua/linkid.js</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>06073871de1a67c0fc852f56373ccf16a0cda28cc0cc7c8fd32d219744ba8413</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[2]/ul/li[8]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com/analytics.js</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>f81d4c26afadd15dadbcd618376be2028d254ea7805155716a22cf2e1903f489</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/section[2]/div[2]/div[4]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://maps.googleapis.com/maps-api-v3/api/js/59/8/common.js</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>b1c18ff8c27ce372bd2d0aec98d133137b3b15a833978833f3ef353b521af041</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/section[2]/div[2]/div[4]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://maps.googleapis.com/maps-api-v3/api/js/59/8/util.js</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>83b57b0862d01af4e04ef1e4f40f4d314f30617f8ba04ccd83f54da76e725a61</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/div[4]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.apple.com/api-www/global-elements/global-header/v1/assets/globalheader.umd.js</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>cc1ee1bcba53978dc97799cb9e678227d474ada57c0b5e4a6fadfb820ebec77f</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/section[5]/div/div[2]/div[16]/div/div/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/sdk.js</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>e8277492766d66add4e4d50a68b08470493c242d48a51f5f48db9daacc7ac511</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[3]/ul/li[4]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://appleid.cdn-apple.com/appleauth/static/jsapi/appleid/1/en_US/appleid.auth.js</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>f0f2552779cb2957f1dc86fb3dc96fc5e2e8804fb5a7e8a0d1b9d4eeffe144e9</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[4]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net/en_US/fbevents.js</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>c5acbaebd7a0b381f1189be5908243e73e67dada59bdf5078f7be303be51dab9</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[4]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://s.adroll.com/j/roundtrip.js</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>d57cc008085ea90e507d8c097737b5889c4adcf6f5ee83bcb4a6ae7c85017169</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[4]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://static.ads-twitter.com/uwt.js</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>7b7d86014aee032bb034bf3d9f1b4d13f72e089ac0f065ce6ce06111ca6c3aac</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[4]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/conversion_async.js</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>5c9dda67f10bd04a0e774004762a5b2cfe537c505c8cc1be173b608496a02de0</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[4]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://s.adroll.com/j/sendrolling.js</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>91c102d526700e1a0582e5e846a3e8991cf4c51b5d9395fd1a7becc29d20a360</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/main/div[2]/div/section[5]/div/div[2]/div[17]/div[2]/a[2]) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://ep2.adtrafficquality.google/sodar/sodar2.js</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>828c4d6c2b48df1a9ba18b053b3201c10b69b22051699c919b5229993512fc6a</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://trustpilot.com -( event Event(onclick, /html/body/div/div/div/div/footer/div/div/section[3]/ul/li[2]/a) )-&gt; [event] https://trustpilot.com</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://challenges.cloudflare.com/turnstile/v0/b/324d0dcf743c/api.js?onload=ULodA3&amp;render=explicit</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>e41378f95986030a210f5f9dfcdac9c0a778036f97792d5f19add62ead0ffa88</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://top-fwz1.mail.ru/js/code.js</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>22f937c909626d53916f53b6b71508c6a6686a76881f9a0987c62131f5b2f1ce</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/react.785823df.js</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>7da47cd19c89d64cd05c01ca81e46bb4256ddd6bee9034c300cd4206f0e272cc</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/vkui.9f6f4600.js</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>5706d440f6b3da16e11bbff0243f4dab8ed6632a8d084e8f101d49c6ff547154</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/architecture-mobx.590e845d.js</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>d5752af6f3787f71cd63ab6e2301ef0d6f62ba6d24d858cc687a03a9760b771d</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/draggable.d59c2db3.js</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>586dcf296b82d44cd648617d75184f9613018b12489b9b1f9e31721894124d3a</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/state-management.a047c2f5.js</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>6a457ec4e2448f37387ccacd6b71d9ef2cc686cd43c01e9acb4314b4f39ce232</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/lib/px.js?ch=1</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>4bf5415d9c3348f21da3dc30afa52980fedaaa1bafeb5fd4a4ad314c52f2d281</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://vk.com/js/lib/px.js?ch=2</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>389b825ad6b0365607d088e056896157e932f955844e721bfed7a9d2a42cbaf1</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/js/lib/ui_controls.js?200</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>b1430337d78a4767d8dbe3b264218dc567da1551008729139aede92f92a05a35</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/45624723.70665e28.js</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0709e0efef117c6ffa5e95339e3e16f9d31331f790666318fd1db4ff287f8c08</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://privacy-cs.mail.ru/static/sync-loader.js</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>6d682172eaa5adb1639d667121d9be1cdf1f9058f104c1247ed7b1e1893608b9</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://top-fwz1.mail.ru/js/dyn-goal-config.js?ids=2579437</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>4cb191e9ad6b18b08acd07ad0458fc3b08383b9e2e3dadf590610e7ec7d54866</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>EasyPrivacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://vk.com/dist/web/chunks/initIdleTabStats.538df115.js</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>accc118fdcbf3e5e50ce32c374fac12ea41220b4cd939684e5c004e42a0492db</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/stickers-popup-tq-handlers.c5a7cd6b.js</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>ff8030d87082950401879a38e46ac20987e648b8de2f129dc41f26e4b2cfd822</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/webSwClient.cf5992c7.js</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1ed82a4d907377a34f8e5b76017a72af60a6c6c8bf1c20656be17b24578726c1</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://vkontakte.ru</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://st6-22.vk.com/dist/web/chunks/webPushNotifier.1c246247.js</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2bf4619e0df5eb5b2a2bc609553e96352a6f6227626b8d181c77c23ddfd1c005</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://static.criteo.net/js/ld/publishertag.prebid.144.js</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>161f420e41d8394d8e27cc43574dbfec016bdab7266fcfb03d467d87f18cae44</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://consent.cmp.oath.com/version/7.0.0/cmp.js</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>71c009f5f313777abcb3bb8cd105a08d7f032025915b38677994bf725fb4a32c</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Fanboy's Annoyance List</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/oa/consent.js</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>c70f840bb64b13fadca78f84d8a38ec974908eab6331b03f52ec8ce6b2457e38</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Fanboy's Annoyance List</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>5b2ed0116e81cfa18dd5a25eb96297980919d5c9436a364d19828eed4bd3c17c</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/du/ay/wnsrvbjmeprtfrnfx.js</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>91f568231bbcfc710d71fb9b20e32ef5f55c30fda99db843b74e2728c5324fa4</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/prebid/prebid-2.0.js</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2989fc33a77b3a6cfb7e50af8c3422791d2849343464d934ea44798af82b5032</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://opus.analytics.yahoo.com/tag/opus.js</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>418ec0f3b6d4569ddc160e83f50b0b4b7e6b03214f843368c7a053b4537ec81c</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>EasyPrivacy, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://wnsrvbjmeprtfrnfx.ay.delivery/floorPrice/wnsrvBJmEPrTfrnFX/js/floorPrice/linreg.min.js</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>ae22667023eaf6d2d60ff6dc329b97fdb05422d304044be0c60f13893a7ec99e</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://securepubads.g.doubleclick.net/pagead/managed/js/gpt/m202502130101/pubads_impl.js?cb=31090446</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>4b950673c2e455e2e40715fea9b42bc7c2bcb0e02e40244ab43fb5a78cac9863</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://tpc.googlesyndication.com/sodar/sodar2.js</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>561311825a27c611e4f5ecd6c2f4724975fe88c41e0f10ab0373abfdc36e5a6f</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>EasyList, Peter Lowe's List</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, /html/body/div[3]/div/aside/div/div/div[5]/div/div[2]/div[2]/div/img) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(error, //*[@id="f1d25cfa91025cfa6461474ac8f95917"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(assistSelectionClicked, //*[@id="ybar-sbq"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[9]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[2]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/rx/ev/prod/evplayer.js</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>d9298d4c86a9bfcbd2460b346f8ff3e0ee58fcef529f53be69d9185dda85a2b6</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/ss/analytics3.js</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>ba416b77455c6716ad9dd3b1e3d84da8bb18ad97835f6177973efa314760062a</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-fetch-1.19.1.js</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>d2e53afb0e32c9fbe6d11fcaaaac15c0518f5245ff546e92dd274f13c28c236a</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-toggle-1.15.4.js</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>46b02580da37d5841470388e54205e645fd6e6099e702c5150a01bb71a37a724</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-image-1.4.0.js</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>bd029d2d3897fb48c3f7c3efad38c8497831afdfac7765222503fdc65035fb69</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-loader-2.7.21.js</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>665fc570c1efaf84cd441b14048111f8be5724f8419d1eb25d1a11ee02d7f68e</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-module-2.0.0.js</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>030224e902af01696a21c0a75559559008c87c6f4c65e1cd14e3feca92a6671d</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-rapid-1.10.9.js</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>21d054f81fccf73948bc67f1843dd18f807cedc57f8d98ffac0967301cb966d6</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body/header/div[2]/div/div/div/div/div[4]/div/div/ul/li[5]/a) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://s.yimg.com/aaq/wf/wf-video-3.2.2.js</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2b9406999ee2602791f9caeb34cb0bcce65edace101b93a6ee369dfc9ba63d00</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseleave, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_top_center_0"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, /html/body/div[3]/div/aside/div/div/div[6]/div/div/ul/li[3]/a/div/div[2]/img) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, /html/body/div[3]/div/aside/div/div/div[6]/div/div/ul/li[3]/a/div/div/img) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseenter, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_as_mid_right_b_0"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, //*[@id="f1d25cfa91025cfa6461474ac8f95917"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(keydown, //*[@id="ybar-sbq"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseleave, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_mid_right_0"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, //*[@id="module-featureBar"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, //*[@id="module-footer"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>2</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseleave, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_top_center_1"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(focusin, //*[@id="notifDropdownContainer"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, //*[@id="ybarNotificationMenu"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>2</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, //*[@id="module-featureBarFull"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(touchstart, /html/body/div[3]/div/main/div[4]/ul/li[6]/div/div/div/div/div) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(focus, //*[@id="ybar-logo"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseenter, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_top_right_0"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, //*[@id="23d0f4a479bfc243450d6aad902dbac3"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>2</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(load, //*[@id="google_ads_iframe_/22888152279/us/yhp/att/dt/us_yhp_att_dt_as_mid_right_a_0"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(error, /html/body/div[3]/div/aside/div/div/div[6]/div/div/ul/li/a/div/div[2]/img) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(error, /html/body/div[3]/div/aside/div/div/div[6]/div/div/ul/li[2]/a/div/div/img) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(mouseover, //*[@id="a073f1b62bfafa57edfe4a4c77a2fa40"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(click, /html/body) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://att.net</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://att.net -( event Event(error, //*[@id="evplayer-css"]) )-&gt; [event] https://att.net</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
